--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\每日打卡\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B0E9F3-8C7A-4EA6-AF29-4CD9274F69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D157B6D-A780-4ACF-9792-4C8A77740D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,21 @@
   </si>
   <si>
     <t>2024.09.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.03</t>
+  </si>
+  <si>
+    <t>07:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石榴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1213,11 +1228,37 @@
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D157B6D-A780-4ACF-9792-4C8A77740D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D2C2D-2B9F-43DC-853B-14B9B4A7E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,84 @@
   </si>
   <si>
     <t>石榴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.04</t>
+  </si>
+  <si>
+    <t>2024.09.05</t>
+  </si>
+  <si>
+    <t>2024.09.06</t>
+  </si>
+  <si>
+    <t>2024.09.07</t>
+  </si>
+  <si>
+    <t>2024.09.08</t>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+  </si>
+  <si>
+    <t>晴天玫瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球 俯卧撑34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃、猕猴桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果、芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑36 蹬车90s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑34 蹬车90s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1257,8 +1335,138 @@
       <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.3055555555555555E-2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D2C2D-2B9F-43DC-853B-14B9B4A7E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628F912-B384-476C-B279-44B7ADF43B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,132 @@
   </si>
   <si>
     <t>俯卧撑35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.10</t>
+  </si>
+  <si>
+    <t>2024.09.11</t>
+  </si>
+  <si>
+    <t>2024.09.12</t>
+  </si>
+  <si>
+    <t>2024.09.13</t>
+  </si>
+  <si>
+    <t>2024.09.14</t>
+  </si>
+  <si>
+    <t>2024.09.15</t>
+  </si>
+  <si>
+    <t>2024.09.16</t>
+  </si>
+  <si>
+    <t>2024.09.17</t>
+  </si>
+  <si>
+    <t>2024.09.18</t>
+  </si>
+  <si>
+    <t>02:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑40 蹬车130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉、春见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑40 蹬车150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>00:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果、哈密瓜、橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑42 蹬车150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果、水蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑50 蹬车160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1347,7 +1473,7 @@
       <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="9"/>
@@ -1369,7 +1495,7 @@
       <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1465,8 +1591,194 @@
       <c r="B25" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628F912-B384-476C-B279-44B7ADF43B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B89000-F948-4D52-BB10-DAC4CAF68FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -532,6 +532,77 @@
   </si>
   <si>
     <t>俯卧撑50 蹬车160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.19</t>
+  </si>
+  <si>
+    <t>2024.09.20</t>
+  </si>
+  <si>
+    <t>2024.09.21</t>
+  </si>
+  <si>
+    <t>2024.09.22</t>
+  </si>
+  <si>
+    <t>2024.09.23</t>
+  </si>
+  <si>
+    <t>08:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃、梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑50 蹬车210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑40 蹬车100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑50 蹬车180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1777,8 +1848,124 @@
       <c r="B34" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B89000-F948-4D52-BB10-DAC4CAF68FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8758223-0048-48E3-9A8E-E3494D22357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="11605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,6 +603,115 @@
   </si>
   <si>
     <t>俯卧撑50 蹬车180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.24</t>
+  </si>
+  <si>
+    <t>2024.09.25</t>
+  </si>
+  <si>
+    <t>2024.09.26</t>
+  </si>
+  <si>
+    <t>2024.09.27</t>
+  </si>
+  <si>
+    <t>2024.09.28</t>
+  </si>
+  <si>
+    <t>2024.09.29</t>
+  </si>
+  <si>
+    <t>2024.09.30</t>
+  </si>
+  <si>
+    <t>08:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋山梨、水蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑60 蹬车200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑34 蹬车230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑60 蹬车220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙果、芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑60 蹬车250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑50 蹬车230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝新 梅一岐山臊子面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1819,7 +1928,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>106</v>
       </c>
@@ -1841,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -1867,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>133</v>
       </c>
@@ -1891,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>134</v>
       </c>
@@ -1913,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>135</v>
       </c>
@@ -1935,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>136</v>
       </c>
@@ -1957,15 +2066,219 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>148</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8758223-0048-48E3-9A8E-E3494D22357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D9371C-13E5-44FD-B630-863EF8DCB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9" yWindow="9" windowWidth="21925" windowHeight="11605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,6 +712,132 @@
   </si>
   <si>
     <t>尝新 梅一岐山臊子面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.03</t>
+  </si>
+  <si>
+    <t>2024.10.04</t>
+  </si>
+  <si>
+    <t>2024.10.05</t>
+  </si>
+  <si>
+    <t>2024.10.06</t>
+  </si>
+  <si>
+    <t>2024.10.07</t>
+  </si>
+  <si>
+    <t>03:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.08</t>
+  </si>
+  <si>
+    <t>爸爸 西津渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦山 朱光玉火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居家休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷爷奶奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠城 浴火之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高邮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2261,6 +2387,9 @@
       <c r="E46" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G46" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
@@ -2280,6 +2409,196 @@
       <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="B48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2024 每日打卡.xlsx
+++ b/2024 每日打卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D9371C-13E5-44FD-B630-863EF8DCB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E3003-3CFF-4D59-AC5F-8EBCC3514E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="251">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -838,6 +838,142 @@
   </si>
   <si>
     <t>香瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.10.10</t>
+  </si>
+  <si>
+    <t>2024.10.11</t>
+  </si>
+  <si>
+    <t>2024.10.12</t>
+  </si>
+  <si>
+    <t>2024.10.13</t>
+  </si>
+  <si>
+    <t>2024.10.14</t>
+  </si>
+  <si>
+    <t>2024.10.15</t>
+  </si>
+  <si>
+    <t>2024.10.16</t>
+  </si>
+  <si>
+    <t>2024.10.17</t>
+  </si>
+  <si>
+    <t>2024.10.18</t>
+  </si>
+  <si>
+    <t>2024.10.19</t>
+  </si>
+  <si>
+    <t>2024.10.20</t>
+  </si>
+  <si>
+    <t>2024.10.21</t>
+  </si>
+  <si>
+    <t>东北涮羊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨、猕猴桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬腿200 俯卧撑35 蹬车300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚球50 抬腿150 俯卧撑35 蹬车350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬腿50 俯卧撑30 蹬车200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬腿100 俯卧撑36 蹬车400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨、金秋水蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬腿250 俯卧撑25 蹬车200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2387,7 +2523,7 @@
       <c r="E46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>187</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -2409,16 +2545,17 @@
       <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D48" s="9"/>
       <c r="F48" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>188</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -2432,19 +2569,20 @@
       <c r="A49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>189</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -2458,19 +2596,20 @@
       <c r="A50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>190</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -2490,13 +2629,14 @@
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D51" s="9"/>
       <c r="E51" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>191</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -2510,19 +2650,20 @@
       <c r="A52" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>196</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -2542,10 +2683,11 @@
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D53" s="9"/>
       <c r="F53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>197</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -2559,12 +2701,13 @@
       <c r="A54" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D54" s="9"/>
       <c r="F54" s="1" t="s">
         <v>210</v>
       </c>
@@ -2596,9 +2739,301 @@
       <c r="B56" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="9"/>
       <c r="E56" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
